--- a/data/trans_orig/P57_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R2-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>262709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>233884</v>
+        <v>236611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>290373</v>
+        <v>294327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2335279575980476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2079054062600663</v>
+        <v>0.2103287975806764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2581192092723774</v>
+        <v>0.2616343329714941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>239</v>
@@ -763,19 +763,19 @@
         <v>246612</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221128</v>
+        <v>217462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278401</v>
+        <v>272374</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1967473412992195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1764167681210798</v>
+        <v>0.1734916181725958</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.222108767934242</v>
+        <v>0.2173005109919637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>485</v>
@@ -784,19 +784,19 @@
         <v>509320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>470076</v>
+        <v>467699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>551089</v>
+        <v>550485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2141441578592785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1976439635497512</v>
+        <v>0.196644500536135</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2317059726849758</v>
+        <v>0.231451794754817</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>862247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>834583</v>
+        <v>830629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>891072</v>
+        <v>888345</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7664720424019524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7418807907276226</v>
+        <v>0.738365667028506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7920945937399338</v>
+        <v>0.7896712024193236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>943</v>
@@ -834,19 +834,19 @@
         <v>1006831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>975042</v>
+        <v>981069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1032315</v>
+        <v>1035981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8032526587007804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7778912320657581</v>
+        <v>0.7826994890080363</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8235832318789204</v>
+        <v>0.826508381827404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1760</v>
@@ -855,19 +855,19 @@
         <v>1869080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1827311</v>
+        <v>1827915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1908324</v>
+        <v>1910701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7858558421407215</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7682940273150242</v>
+        <v>0.7685482052451829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8023560364502487</v>
+        <v>0.803355499463865</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>254179</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>229166</v>
+        <v>227789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>282308</v>
+        <v>285766</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2813706333288097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2536815732360128</v>
+        <v>0.2521574442247423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3125092179669499</v>
+        <v>0.3163374733220725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>268</v>
@@ -980,19 +980,19 @@
         <v>275999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>247270</v>
+        <v>247058</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>306754</v>
+        <v>303672</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2755506657308556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2468677983421245</v>
+        <v>0.2466568035735571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3062558976189989</v>
+        <v>0.3031781076980223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>515</v>
@@ -1001,19 +1001,19 @@
         <v>530178</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>492492</v>
+        <v>490093</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>571879</v>
+        <v>568177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2783105364217839</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2585277512362442</v>
+        <v>0.2572685348265025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3002008532297731</v>
+        <v>0.2982575661154552</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>649180</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>621051</v>
+        <v>617593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>674193</v>
+        <v>675570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7186293666711903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6874907820330499</v>
+        <v>0.6836625266779273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.746318426763987</v>
+        <v>0.7478425557752575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>679</v>
@@ -1051,19 +1051,19 @@
         <v>725629</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>694874</v>
+        <v>697956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>754358</v>
+        <v>754570</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7244493342691444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6937441023810013</v>
+        <v>0.6968218923019777</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7531322016578754</v>
+        <v>0.753343196426443</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1308</v>
@@ -1072,19 +1072,19 @@
         <v>1374809</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1333108</v>
+        <v>1336810</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1412495</v>
+        <v>1414894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7216894635782161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6997991467702268</v>
+        <v>0.7017424338845447</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7414722487637558</v>
+        <v>0.7427314651734974</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>282111</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>254603</v>
+        <v>253712</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309141</v>
+        <v>308967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3437236814385402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3102086224966933</v>
+        <v>0.3091230197404765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3766569164936784</v>
+        <v>0.3764455459852287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>210</v>
@@ -1197,19 +1197,19 @@
         <v>214661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>190399</v>
+        <v>191546</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240757</v>
+        <v>240295</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2788339914542436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2473186255591315</v>
+        <v>0.2488078766090746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3127303869448156</v>
+        <v>0.3121306715579393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>480</v>
@@ -1218,19 +1218,19 @@
         <v>496772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>459964</v>
+        <v>462866</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>533151</v>
+        <v>533533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3123169857378397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2891762054382319</v>
+        <v>0.2910005537368552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3351883750065263</v>
+        <v>0.3354281520735432</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>538638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511608</v>
+        <v>511782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566146</v>
+        <v>567037</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6562763185614598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6233430835063216</v>
+        <v>0.6235544540147713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6897913775033067</v>
+        <v>0.6908769802595235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>517</v>
@@ -1268,19 +1268,19 @@
         <v>555193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>529097</v>
+        <v>529559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>579455</v>
+        <v>578308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7211660085457564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6872696130551845</v>
+        <v>0.6878693284420605</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7526813744408685</v>
+        <v>0.7511921233909253</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1031</v>
@@ -1289,19 +1289,19 @@
         <v>1093830</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1057451</v>
+        <v>1057069</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1130638</v>
+        <v>1127736</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6876830142621603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6648116249934739</v>
+        <v>0.6645718479264572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7108237945617683</v>
+        <v>0.7089994462631448</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>222426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>199415</v>
+        <v>199972</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243304</v>
+        <v>245440</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4407951033421826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3951919719509497</v>
+        <v>0.396296654443021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4821701416560718</v>
+        <v>0.486402640258993</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -1414,19 +1414,19 @@
         <v>187648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165559</v>
+        <v>164124</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211923</v>
+        <v>208603</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3865628217171129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3410569618154204</v>
+        <v>0.3381008857265936</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4365689816942049</v>
+        <v>0.4297293458098542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>379</v>
@@ -1435,19 +1435,19 @@
         <v>410074</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>378483</v>
+        <v>378365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>444530</v>
+        <v>441410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4142040965712208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.382294151019937</v>
+        <v>0.3821756189447979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4490064061062418</v>
+        <v>0.4458554140666673</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>282176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261298</v>
+        <v>259162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>305187</v>
+        <v>304630</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5592048966578174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5178298583439283</v>
+        <v>0.513597359741007</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6048080280490503</v>
+        <v>0.603703345556979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -1485,19 +1485,19 @@
         <v>297780</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273505</v>
+        <v>276825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319869</v>
+        <v>321304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.613437178282887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5634310183057948</v>
+        <v>0.5702706541901458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6589430381845794</v>
+        <v>0.6618991142734061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>541</v>
@@ -1506,19 +1506,19 @@
         <v>579956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>545500</v>
+        <v>548620</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>611547</v>
+        <v>611665</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5857959034287792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.550993593893758</v>
+        <v>0.5541445859333326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6177058489800624</v>
+        <v>0.6178243810552021</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1021424</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>966677</v>
+        <v>963623</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1076631</v>
+        <v>1075480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3045694632965104</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2882448985987603</v>
+        <v>0.2873341862841766</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3210312980131261</v>
+        <v>0.320687914103934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>893</v>
@@ -1631,19 +1631,19 @@
         <v>924921</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>871084</v>
+        <v>870001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>979924</v>
+        <v>980508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2634836886277323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2481471867747398</v>
+        <v>0.2478384044273019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2791525832683051</v>
+        <v>0.2793189307769781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1859</v>
@@ -1652,19 +1652,19 @@
         <v>1946345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1867982</v>
+        <v>1875372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2022466</v>
+        <v>2020877</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2835576315676288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2721411239490136</v>
+        <v>0.2732178255430215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2946475579979348</v>
+        <v>0.2944159486357591</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2332241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2277034</v>
+        <v>2278185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2386988</v>
+        <v>2390042</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6954305367034895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6789687019868739</v>
+        <v>0.6793120858960658</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7117551014012398</v>
+        <v>0.7126658137158234</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2414</v>
@@ -1702,19 +1702,19 @@
         <v>2585433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2530430</v>
+        <v>2529846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2639270</v>
+        <v>2640353</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7365163113722677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7208474167316952</v>
+        <v>0.7206810692230219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7518528132252603</v>
+        <v>0.7521615955726981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4640</v>
@@ -1723,19 +1723,19 @@
         <v>4917674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4841553</v>
+        <v>4843142</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4996037</v>
+        <v>4988647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7164423684323713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.705352442002065</v>
+        <v>0.7055840513642408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7278588760509859</v>
+        <v>0.7267821744569785</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>158927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135089</v>
+        <v>132605</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184133</v>
+        <v>183281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3204286503399968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2723658774221391</v>
+        <v>0.2673583444886022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3712481931300936</v>
+        <v>0.369530725994414</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>226</v>
@@ -2088,19 +2088,19 @@
         <v>184862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164588</v>
+        <v>164443</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>206547</v>
+        <v>208250</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.299291331673577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2664682877573816</v>
+        <v>0.2662325352193822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3343994045590778</v>
+        <v>0.3371566939515906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>346</v>
@@ -2109,19 +2109,19 @@
         <v>343789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>307975</v>
+        <v>314263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>376857</v>
+        <v>379298</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3087052065913333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2765454336331594</v>
+        <v>0.2821923812142125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3383986176806604</v>
+        <v>0.3405905992753293</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>337056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311850</v>
+        <v>312702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>360894</v>
+        <v>363378</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6795713496600032</v>
+        <v>0.6795713496600034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6287518068699067</v>
+        <v>0.6304692740055867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7276341225778612</v>
+        <v>0.732641655511398</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>624</v>
@@ -2159,19 +2159,19 @@
         <v>432804</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>411119</v>
+        <v>409416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>453078</v>
+        <v>453223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7007086683264231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6656005954409223</v>
+        <v>0.6628433060484095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7335317122426186</v>
+        <v>0.7337674647806178</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>956</v>
@@ -2180,19 +2180,19 @@
         <v>769860</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736792</v>
+        <v>734351</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>805674</v>
+        <v>799386</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6912947934086666</v>
+        <v>0.6912947934086665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6616013823193396</v>
+        <v>0.6594094007246707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7234545663668405</v>
+        <v>0.7178076187857875</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>458428</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>426088</v>
+        <v>418108</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>497047</v>
+        <v>491017</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4785260667803272</v>
+        <v>0.4785260667803271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4447680580597396</v>
+        <v>0.4364382015381431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5188379037181801</v>
+        <v>0.5125435863946841</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>572</v>
@@ -2305,19 +2305,19 @@
         <v>442697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>416552</v>
+        <v>414429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>474477</v>
+        <v>470978</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3997084692091859</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3761026647000248</v>
+        <v>0.3741854136579602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4284026952314995</v>
+        <v>0.4252432340085375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>947</v>
@@ -2326,19 +2326,19 @@
         <v>901125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>853596</v>
+        <v>859451</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>944086</v>
+        <v>946961</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4362640315922101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4132537618221089</v>
+        <v>0.4160884418546856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4570625439396306</v>
+        <v>0.4584545269266878</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>499573</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460954</v>
+        <v>466984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>531913</v>
+        <v>539893</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5214739332196729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4811620962818198</v>
+        <v>0.4874564136053158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5552319419402603</v>
+        <v>0.5635617984618568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1021</v>
@@ -2376,19 +2376,19 @@
         <v>664852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>633072</v>
+        <v>636571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>690997</v>
+        <v>693120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6002915307908142</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5715973047685005</v>
+        <v>0.5747567659914627</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6238973352999754</v>
+        <v>0.6258145863420401</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1553</v>
@@ -2397,19 +2397,19 @@
         <v>1164425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1121464</v>
+        <v>1118589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1211954</v>
+        <v>1206099</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5637359684077899</v>
+        <v>0.5637359684077898</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5429374560603694</v>
+        <v>0.5415454730733124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5867462381778911</v>
+        <v>0.5839115581453145</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>512035</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>476760</v>
+        <v>474540</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>548837</v>
+        <v>546176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4908249185756871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4570114993999807</v>
+        <v>0.4548829863158927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5261024033516595</v>
+        <v>0.5235517594480108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>575</v>
@@ -2522,19 +2522,19 @@
         <v>432888</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>404470</v>
+        <v>404871</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>463371</v>
+        <v>459996</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4148140610667777</v>
+        <v>0.4148140610667778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3875825443092681</v>
+        <v>0.3879670239941368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4440249218891266</v>
+        <v>0.440791052549527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1037</v>
@@ -2543,19 +2543,19 @@
         <v>944923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>903096</v>
+        <v>896487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>989516</v>
+        <v>986168</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4528129829843023</v>
+        <v>0.4528129829843024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4327693181741709</v>
+        <v>0.4296022393458434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4741824979386665</v>
+        <v>0.4725779539223434</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>531178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>494376</v>
+        <v>497037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566453</v>
+        <v>568673</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5091750814243129</v>
+        <v>0.5091750814243128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4738975966483406</v>
+        <v>0.4764482405519896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5429885006000192</v>
+        <v>0.5451170136841075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>934</v>
@@ -2593,19 +2593,19 @@
         <v>610682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>580199</v>
+        <v>583574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>639100</v>
+        <v>638699</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5851859389332222</v>
+        <v>0.5851859389332223</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5559750781108735</v>
+        <v>0.559208947450473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6124174556907319</v>
+        <v>0.6120329760058631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1497</v>
@@ -2614,19 +2614,19 @@
         <v>1141861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1097268</v>
+        <v>1100616</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1183688</v>
+        <v>1190297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5471870170156976</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5258175020613333</v>
+        <v>0.5274220460776565</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5672306818258289</v>
+        <v>0.5703977606541566</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>480916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>445852</v>
+        <v>446310</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>517228</v>
+        <v>515512</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4931920488174063</v>
+        <v>0.4931920488174062</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4572323301904603</v>
+        <v>0.4577019044663929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.530430835124403</v>
+        <v>0.5286710086360118</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>621</v>
@@ -2739,19 +2739,19 @@
         <v>453956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>428845</v>
+        <v>426384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>482471</v>
+        <v>480582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5004579325212506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4727751184660201</v>
+        <v>0.4700612705482244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.531893557169416</v>
+        <v>0.5298120382607463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1070</v>
@@ -2760,19 +2760,19 @@
         <v>934872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>894449</v>
+        <v>888883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>978111</v>
+        <v>980303</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4966936838329018</v>
+        <v>0.4966936838329019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4752169383816799</v>
+        <v>0.4722598172461737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5196663269995399</v>
+        <v>0.5208308561193391</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>494194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>457882</v>
+        <v>459598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>529258</v>
+        <v>528800</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5068079511825936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.469569164875597</v>
+        <v>0.4713289913639882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5427676698095395</v>
+        <v>0.5422980955336072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>697</v>
@@ -2810,19 +2810,19 @@
         <v>453125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424610</v>
+        <v>426499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478236</v>
+        <v>480697</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4995420674787494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4681064428305841</v>
+        <v>0.4701879617392539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5272248815339799</v>
+        <v>0.5299387294517758</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1194</v>
@@ -2831,19 +2831,19 @@
         <v>947319</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>904080</v>
+        <v>901888</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>987742</v>
+        <v>993308</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5033063161670981</v>
+        <v>0.5033063161670983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4803336730004601</v>
+        <v>0.4791691438806608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5247830616183202</v>
+        <v>0.5277401827538265</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>1610307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1547105</v>
+        <v>1545742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1673899</v>
+        <v>1679173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4637571112935792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4455553732821649</v>
+        <v>0.4451627415510334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4820710008679014</v>
+        <v>0.4835900787396575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1994</v>
@@ -2956,19 +2956,19 @@
         <v>1514402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1458429</v>
+        <v>1455011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1566469</v>
+        <v>1572106</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4119851540361888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3967579155407449</v>
+        <v>0.3958282209632842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4261495397880951</v>
+        <v>0.4276832114648544</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3400</v>
@@ -2977,19 +2977,19 @@
         <v>3124709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3046400</v>
+        <v>3039181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3208974</v>
+        <v>3212012</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4371339751732576</v>
+        <v>0.4371339751732577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4261788245208062</v>
+        <v>0.4251688672902114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4489222105388375</v>
+        <v>0.4493472135934469</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>1862000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1798408</v>
+        <v>1793134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1925202</v>
+        <v>1926565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5362428887064209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5179289991320987</v>
+        <v>0.5164099212603427</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5544446267178351</v>
+        <v>0.5548372584489669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3276</v>
@@ -3027,19 +3027,19 @@
         <v>2161464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2109397</v>
+        <v>2103760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2217437</v>
+        <v>2220855</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5880148459638113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.573850460211905</v>
+        <v>0.5723167885351457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6032420844592553</v>
+        <v>0.6041717790367158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5200</v>
@@ -3048,19 +3048,19 @@
         <v>4023464</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3939199</v>
+        <v>3936161</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4101773</v>
+        <v>4108992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5628660248267424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5510777894611626</v>
+        <v>0.5506527864065532</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.573821175479194</v>
+        <v>0.5748311327097888</v>
       </c>
     </row>
     <row r="18">
